--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -531,46 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5683193333333333</v>
+        <v>0.777961</v>
       </c>
       <c r="H2">
-        <v>1.704958</v>
+        <v>2.333883</v>
       </c>
       <c r="I2">
-        <v>0.7035570741208415</v>
+        <v>0.7646397019917995</v>
       </c>
       <c r="J2">
-        <v>0.7035570741208415</v>
+        <v>0.7646397019917995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3932066666666667</v>
+        <v>0.5535766666666666</v>
       </c>
       <c r="N2">
-        <v>1.17962</v>
+        <v>1.66073</v>
       </c>
       <c r="O2">
-        <v>0.8341341479367975</v>
+        <v>0.7546693956119359</v>
       </c>
       <c r="P2">
-        <v>0.8341341479367974</v>
+        <v>0.754669395611936</v>
       </c>
       <c r="Q2">
-        <v>0.2234669506622222</v>
+        <v>0.4306610571766666</v>
       </c>
       <c r="R2">
-        <v>2.01120255596</v>
+        <v>3.87594951459</v>
       </c>
       <c r="S2">
-        <v>0.5868609805466943</v>
+        <v>0.5770501817630421</v>
       </c>
       <c r="T2">
-        <v>0.5868609805466943</v>
+        <v>0.5770501817630422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5683193333333333</v>
+        <v>0.777961</v>
       </c>
       <c r="H3">
-        <v>1.704958</v>
+        <v>2.333883</v>
       </c>
       <c r="I3">
-        <v>0.7035570741208415</v>
+        <v>0.7646397019917995</v>
       </c>
       <c r="J3">
-        <v>0.7035570741208415</v>
+        <v>0.7646397019917995</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -611,28 +611,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.07818833333333335</v>
+        <v>0.1799586666666667</v>
       </c>
       <c r="N3">
-        <v>0.234565</v>
+        <v>0.539876</v>
       </c>
       <c r="O3">
-        <v>0.1658658520632025</v>
+        <v>0.245330604388064</v>
       </c>
       <c r="P3">
-        <v>0.1658658520632025</v>
+        <v>0.2453306043880641</v>
       </c>
       <c r="Q3">
-        <v>0.04443594147444445</v>
+        <v>0.1400008242786667</v>
       </c>
       <c r="R3">
-        <v>0.3999234732700001</v>
+        <v>1.260007418508</v>
       </c>
       <c r="S3">
-        <v>0.1166960935741471</v>
+        <v>0.1875895202287574</v>
       </c>
       <c r="T3">
-        <v>0.1166960935741471</v>
+        <v>0.1875895202287574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,40 +661,40 @@
         <v>0.7183820000000001</v>
       </c>
       <c r="I4">
-        <v>0.2964429258791585</v>
+        <v>0.2353602980082005</v>
       </c>
       <c r="J4">
-        <v>0.2964429258791585</v>
+        <v>0.2353602980082005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3932066666666667</v>
+        <v>0.5535766666666666</v>
       </c>
       <c r="N4">
-        <v>1.17962</v>
+        <v>1.66073</v>
       </c>
       <c r="O4">
-        <v>0.8341341479367975</v>
+        <v>0.7546693956119359</v>
       </c>
       <c r="P4">
-        <v>0.8341341479367974</v>
+        <v>0.754669395611936</v>
       </c>
       <c r="Q4">
-        <v>0.0941575305377778</v>
+        <v>0.1325598376511111</v>
       </c>
       <c r="R4">
-        <v>0.8474177748400001</v>
+        <v>1.19303853886</v>
       </c>
       <c r="S4">
-        <v>0.2472731673901031</v>
+        <v>0.1776192138488938</v>
       </c>
       <c r="T4">
-        <v>0.2472731673901031</v>
+        <v>0.1776192138488938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.7183820000000001</v>
       </c>
       <c r="I5">
-        <v>0.2964429258791585</v>
+        <v>0.2353602980082005</v>
       </c>
       <c r="J5">
-        <v>0.2964429258791585</v>
+        <v>0.2353602980082005</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -735,28 +735,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07818833333333335</v>
+        <v>0.1799586666666667</v>
       </c>
       <c r="N5">
-        <v>0.234565</v>
+        <v>0.539876</v>
       </c>
       <c r="O5">
-        <v>0.1658658520632025</v>
+        <v>0.245330604388064</v>
       </c>
       <c r="P5">
-        <v>0.1658658520632025</v>
+        <v>0.2453306043880641</v>
       </c>
       <c r="Q5">
-        <v>0.01872303042555556</v>
+        <v>0.04309302229244445</v>
       </c>
       <c r="R5">
-        <v>0.16850727383</v>
+        <v>0.3878372006320001</v>
       </c>
       <c r="S5">
-        <v>0.04916975848905541</v>
+        <v>0.05774108415930669</v>
       </c>
       <c r="T5">
-        <v>0.04916975848905541</v>
+        <v>0.05774108415930669</v>
       </c>
     </row>
   </sheetData>
